--- a/biology/Écologie/Forêts_claires_ripariennes_d'Asie_centrale/Forêts_claires_ripariennes_d'Asie_centrale.xlsx
+++ b/biology/Écologie/Forêts_claires_ripariennes_d'Asie_centrale/Forêts_claires_ripariennes_d'Asie_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_claires_ripariennes_d%27Asie_centrale</t>
+          <t>Forêts_claires_ripariennes_d'Asie_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts claires ripariennes d'Asie centrale forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des déserts et brousses xériques de l'écozone paléarctique. Ces forêts galeries, connues localement sous le nom de « tougaï (de) », bordent les grands fleuves d'Asie centrale : le Syr-Daria, l'Amou-Daria, le Murghab, le Tedjen, l'Ili, le Zeravchan, le Vakhch et le Naryn.
 </t>
